--- a/vendor/gems/omni/db/import/departments.xlsx
+++ b/vendor/gems/omni/db/import/departments.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1380" windowWidth="22575" windowHeight="8640"/>
+    <workbookView xWindow="1320" yWindow="1380" windowWidth="22580" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,9 +35,6 @@
     <t>short_name</t>
   </si>
   <si>
-    <t>buyer_person_id</t>
-  </si>
-  <si>
     <t>*company_id</t>
   </si>
   <si>
@@ -70,13 +72,16 @@
   </si>
   <si>
     <t>WOVEN TOPS</t>
+  </si>
+  <si>
+    <t>buyer_user_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,23 +429,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
-    <col min="3" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="23.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.140625" style="3"/>
+    <col min="8" max="16384" width="10.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,112 +459,112 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -567,29 +572,44 @@
     <hyperlink ref="G1" location="main!A1" display="main!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>